--- a/groupProject/TestingTable.xlsx
+++ b/groupProject/TestingTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>TextFile content</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Invalid input, the bugget should be greater than one.</t>
+  </si>
+  <si>
+    <t>TestCalculateCombination</t>
+  </si>
+  <si>
+    <t>currentMenuCounter</t>
+  </si>
+  <si>
+    <t>i&lt;Main.getMenu().size()</t>
+  </si>
+  <si>
+    <t>foodStorageList</t>
   </si>
 </sst>
 </file>
@@ -462,16 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
@@ -787,7 +800,32 @@
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
